--- a/BlankProcess/result.xlsx
+++ b/BlankProcess/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\BlankProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8887C78D-22E0-4769-8C0E-26CE16062E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56973607-451F-4747-B985-D7675B174073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72033873-52B6-4692-980B-8859D4CB5079}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{72033873-52B6-4692-980B-8859D4CB5079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,16 +428,16 @@
       <selection activeCell="A8" sqref="A8:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -450,7 +450,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -463,7 +463,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -476,7 +476,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -489,7 +489,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
